--- a/Roseta/Baseline&Timeseries_pops.xlsx
+++ b/Roseta/Baseline&Timeseries_pops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a_Resurrection/Roseta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B192F9B-FE31-144A-AFAE-3E281981B4AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FBE86C-2C36-1548-A6B4-323F055A38A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17440" xr2:uid="{1C7FFBE0-94F5-B840-A910-1A73467688C9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
   <si>
     <t>Lat</t>
   </si>
@@ -253,6 +253,15 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>Keep 10</t>
+  </si>
+  <si>
+    <t>Keep 8</t>
+  </si>
+  <si>
+    <t>Keep 5</t>
   </si>
 </sst>
 </file>
@@ -262,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,6 +333,13 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -354,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -440,6 +456,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,14 +773,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A3224E-A98A-094C-AC52-9362F548207D}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" style="3" customWidth="1"/>
-    <col min="2" max="5" width="20.33203125" style="19" customWidth="1"/>
+    <col min="2" max="3" width="20.33203125" style="19" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" style="19" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.83203125" style="10" bestFit="1" customWidth="1"/>
@@ -777,14 +795,14 @@
       <c r="B1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="19">
-        <v>10</v>
-      </c>
-      <c r="D1" s="19">
-        <v>8</v>
-      </c>
-      <c r="E1" s="19">
-        <v>5</v>
+      <c r="C1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>16</v>
@@ -1343,7 +1361,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="18"/>
@@ -1644,7 +1662,7 @@
         <v>20</v>
       </c>
       <c r="C39" s="17">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D39" s="17">
         <v>20</v>
@@ -1803,7 +1821,9 @@
       <c r="B45" s="30">
         <v>6</v>
       </c>
-      <c r="C45" s="17"/>
+      <c r="C45" s="17">
+        <v>1</v>
+      </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="F45" s="11" t="s">
@@ -1827,7 +1847,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="17">
         <v>9</v>
@@ -1856,7 +1876,7 @@
         <v>20</v>
       </c>
       <c r="C47" s="17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D47" s="17">
         <v>20</v>
@@ -1948,7 +1968,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17">
         <v>10</v>
@@ -2138,7 +2158,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D59" s="17">
         <v>9</v>
@@ -2263,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="27">
         <v>1</v>
@@ -2455,7 +2475,7 @@
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C72" s="19">
         <f>SUM(C14:C70)</f>
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D72" s="19">
         <f>SUM(D14:D70)</f>
@@ -2469,7 +2489,7 @@
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C73" s="19">
         <f>813-C72</f>
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="D73" s="19">
         <f t="shared" ref="D73:E73" si="4">813-D72</f>
@@ -2482,7 +2502,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C74" s="32">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="D74" s="32">
         <v>630</v>

--- a/Roseta/Baseline&Timeseries_pops.xlsx
+++ b/Roseta/Baseline&Timeseries_pops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a_Resurrection/Roseta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FBE86C-2C36-1548-A6B4-323F055A38A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9434D95C-11D8-6F43-B6F2-0FF44B30EE49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17440" xr2:uid="{1C7FFBE0-94F5-B840-A910-1A73467688C9}"/>
   </bookViews>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A3224E-A98A-094C-AC52-9362F548207D}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
